--- a/tests/validation_results/Validation_Inputs_100.xlsx
+++ b/tests/validation_results/Validation_Inputs_100.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE51C627-83FB-4B08-96DB-83DC8D559FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56A3CCD-5345-428A-8374-55000A73E205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1665,9 +1665,6 @@
     <t>Default folder to store log messages and the excel results, this can be overwritten using the GUI</t>
   </si>
   <si>
-    <t>Include_Convex</t>
-  </si>
-  <si>
     <t>Updated to include ConvexHull calculation</t>
   </si>
   <si>
@@ -2503,6 +2500,9 @@
   </si>
   <si>
     <t>Line 119</t>
+  </si>
+  <si>
+    <t>Include_Loci</t>
   </si>
 </sst>
 </file>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>167</v>
@@ -4201,12 +4201,12 @@
         <v>44015</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>167</v>
@@ -4215,7 +4215,7 @@
         <v>44030</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,7 +4392,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4436,7 +4436,7 @@
         <v>178</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>199</v>
@@ -4447,7 +4447,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>177</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="B13" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4613,44 +4613,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>223</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="60"/>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>189</v>
@@ -5033,22 +5033,22 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>189</v>
@@ -9926,7 +9926,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="60"/>
@@ -9987,39 +9987,39 @@
         <v>185</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K4" s="68"/>
       <c r="L4" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M4" s="68"/>
       <c r="N4" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O4" s="68"/>
       <c r="P4" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="68"/>
       <c r="R4" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S4" s="68"/>
     </row>
@@ -10028,55 +10028,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S5" s="53" t="s">
         <v>165</v>
@@ -10084,13 +10084,13 @@
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -10111,13 +10111,13 @@
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -10138,13 +10138,13 @@
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -10165,13 +10165,13 @@
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -10192,13 +10192,13 @@
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -10219,13 +10219,13 @@
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -10246,13 +10246,13 @@
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -10273,13 +10273,13 @@
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -10300,13 +10300,13 @@
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -10327,13 +10327,13 @@
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -10354,13 +10354,13 @@
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -10381,13 +10381,13 @@
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -10408,13 +10408,13 @@
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -10435,13 +10435,13 @@
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -10462,13 +10462,13 @@
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -10489,13 +10489,13 @@
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -10516,13 +10516,13 @@
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -10543,13 +10543,13 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -10597,13 +10597,13 @@
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -10624,13 +10624,13 @@
     </row>
     <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -10651,13 +10651,13 @@
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -10678,13 +10678,13 @@
     </row>
     <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -10705,13 +10705,13 @@
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -10732,13 +10732,13 @@
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -10759,13 +10759,13 @@
     </row>
     <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -10786,13 +10786,13 @@
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -10813,13 +10813,13 @@
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -10840,13 +10840,13 @@
     </row>
     <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -10867,13 +10867,13 @@
     </row>
     <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -10894,13 +10894,13 @@
     </row>
     <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -10921,13 +10921,13 @@
     </row>
     <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -10948,13 +10948,13 @@
     </row>
     <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -10975,13 +10975,13 @@
     </row>
     <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -11002,13 +11002,13 @@
     </row>
     <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -11029,13 +11029,13 @@
     </row>
     <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -11056,13 +11056,13 @@
     </row>
     <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -11083,13 +11083,13 @@
     </row>
     <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -11110,13 +11110,13 @@
     </row>
     <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -11137,13 +11137,13 @@
     </row>
     <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -11164,13 +11164,13 @@
     </row>
     <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -11191,13 +11191,13 @@
     </row>
     <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -11218,13 +11218,13 @@
     </row>
     <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -11245,13 +11245,13 @@
     </row>
     <row r="49" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -11272,13 +11272,13 @@
     </row>
     <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -11299,13 +11299,13 @@
     </row>
     <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -11326,13 +11326,13 @@
     </row>
     <row r="52" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -11353,13 +11353,13 @@
     </row>
     <row r="53" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -11380,13 +11380,13 @@
     </row>
     <row r="54" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -11407,13 +11407,13 @@
     </row>
     <row r="55" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
@@ -11434,13 +11434,13 @@
     </row>
     <row r="56" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -11461,13 +11461,13 @@
     </row>
     <row r="57" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -11488,13 +11488,13 @@
     </row>
     <row r="58" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -11515,13 +11515,13 @@
     </row>
     <row r="59" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
@@ -11542,13 +11542,13 @@
     </row>
     <row r="60" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -11569,13 +11569,13 @@
     </row>
     <row r="61" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
@@ -11596,13 +11596,13 @@
     </row>
     <row r="62" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -11623,13 +11623,13 @@
     </row>
     <row r="63" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -11650,13 +11650,13 @@
     </row>
     <row r="64" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -11677,13 +11677,13 @@
     </row>
     <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -11704,13 +11704,13 @@
     </row>
     <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -11731,13 +11731,13 @@
     </row>
     <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
@@ -11758,13 +11758,13 @@
     </row>
     <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -11785,13 +11785,13 @@
     </row>
     <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
@@ -11812,13 +11812,13 @@
     </row>
     <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
@@ -11839,13 +11839,13 @@
     </row>
     <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
@@ -11866,13 +11866,13 @@
     </row>
     <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
@@ -11893,13 +11893,13 @@
     </row>
     <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
@@ -11920,13 +11920,13 @@
     </row>
     <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -11947,13 +11947,13 @@
     </row>
     <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -11974,13 +11974,13 @@
     </row>
     <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
@@ -12001,13 +12001,13 @@
     </row>
     <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -12028,13 +12028,13 @@
     </row>
     <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
@@ -12055,13 +12055,13 @@
     </row>
     <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -12082,13 +12082,13 @@
     </row>
     <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -12109,13 +12109,13 @@
     </row>
     <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
@@ -12136,13 +12136,13 @@
     </row>
     <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
@@ -12163,13 +12163,13 @@
     </row>
     <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
@@ -12190,13 +12190,13 @@
     </row>
     <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
@@ -12217,13 +12217,13 @@
     </row>
     <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
@@ -12244,13 +12244,13 @@
     </row>
     <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
@@ -12271,13 +12271,13 @@
     </row>
     <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
@@ -12298,13 +12298,13 @@
     </row>
     <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
@@ -12325,13 +12325,13 @@
     </row>
     <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
@@ -12352,13 +12352,13 @@
     </row>
     <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
@@ -12379,13 +12379,13 @@
     </row>
     <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
@@ -12406,13 +12406,13 @@
     </row>
     <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="18"/>
@@ -12433,13 +12433,13 @@
     </row>
     <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
@@ -12460,13 +12460,13 @@
     </row>
     <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
@@ -12487,13 +12487,13 @@
     </row>
     <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
@@ -12514,13 +12514,13 @@
     </row>
     <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B96" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
@@ -12541,13 +12541,13 @@
     </row>
     <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
@@ -12568,13 +12568,13 @@
     </row>
     <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
@@ -12595,13 +12595,13 @@
     </row>
     <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
@@ -12622,13 +12622,13 @@
     </row>
     <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
@@ -12649,13 +12649,13 @@
     </row>
     <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="18"/>
@@ -12676,13 +12676,13 @@
     </row>
     <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="18"/>
@@ -12703,13 +12703,13 @@
     </row>
     <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="18"/>
@@ -12730,13 +12730,13 @@
     </row>
     <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B104" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
@@ -12757,13 +12757,13 @@
     </row>
     <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="18"/>
@@ -12784,13 +12784,13 @@
     </row>
     <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -12811,13 +12811,13 @@
     </row>
     <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -12838,13 +12838,13 @@
     </row>
     <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -12865,13 +12865,13 @@
     </row>
     <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -12892,13 +12892,13 @@
     </row>
     <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -12919,13 +12919,13 @@
     </row>
     <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B111" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -12946,13 +12946,13 @@
     </row>
     <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B112" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="18"/>
@@ -12973,13 +12973,13 @@
     </row>
     <row r="113" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
@@ -13000,13 +13000,13 @@
     </row>
     <row r="114" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
@@ -13027,13 +13027,13 @@
     </row>
     <row r="115" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B115" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="18"/>
@@ -13054,13 +13054,13 @@
     </row>
     <row r="116" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
@@ -13081,13 +13081,13 @@
     </row>
     <row r="117" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
@@ -13108,13 +13108,13 @@
     </row>
     <row r="118" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B118" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
@@ -13135,13 +13135,13 @@
     </row>
     <row r="119" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B119" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
@@ -13162,13 +13162,13 @@
     </row>
     <row r="120" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B120" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
@@ -13189,13 +13189,13 @@
     </row>
     <row r="121" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="18"/>
@@ -13216,13 +13216,13 @@
     </row>
     <row r="122" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
@@ -13243,13 +13243,13 @@
     </row>
     <row r="123" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
@@ -13270,13 +13270,13 @@
     </row>
     <row r="124" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
@@ -14308,13 +14308,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="18" t="b">
         <v>0</v>
@@ -14322,13 +14322,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="18" t="b">
         <v>0</v>
@@ -14336,13 +14336,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="18" t="b">
         <v>0</v>
@@ -14350,13 +14350,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8" s="18" t="b">
         <v>0</v>
@@ -14364,13 +14364,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="18" t="b">
         <v>0</v>
@@ -14378,13 +14378,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>250</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="D10" s="18" t="b">
         <v>0</v>
@@ -15051,7 +15051,7 @@
         <v>171</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>172</v>
@@ -15816,7 +15816,7 @@
         <v>182</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>184</v>
@@ -15993,6 +15993,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -16144,27 +16164,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16180,28 +16204,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/validation_results/Validation_Inputs_100.xlsx
+++ b/tests/validation_results/Validation_Inputs_100.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56A3CCD-5345-428A-8374-55000A73E205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE0775-9C0D-4F41-BE34-6B1F24E57A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2760" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1728,9 +1728,6 @@
     <t>C:\Users\david\PycharmProjects\JA7896-AEMO_PF_Harmonic_Tool\tests\validation_results</t>
   </si>
   <si>
-    <t>AEMO_VIC_V0_20200723</t>
-  </si>
-  <si>
     <t>Medium Load Case</t>
   </si>
   <si>
@@ -2503,6 +2500,9 @@
   </si>
   <si>
     <t>Include_Loci</t>
+  </si>
+  <si>
+    <t>AEMO_VIC_V0_TEST_CASE</t>
   </si>
 </sst>
 </file>
@@ -4391,7 +4391,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" s="30" t="b">
         <v>1</v>
@@ -4564,8 +4564,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4613,44 +4613,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>221</v>
+        <v>479</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>222</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>221</v>
+        <v>479</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,13 +4995,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>189</v>
@@ -5033,22 +5033,22 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>189</v>
@@ -10028,55 +10028,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S5" s="53" t="s">
         <v>165</v>
@@ -10087,7 +10087,7 @@
         <v>203</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>214</v>
@@ -10114,7 +10114,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>214</v>
@@ -10141,7 +10141,7 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>214</v>
@@ -10168,7 +10168,7 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>214</v>
@@ -10195,7 +10195,7 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>214</v>
@@ -10222,7 +10222,7 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>214</v>
@@ -10249,7 +10249,7 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>214</v>
@@ -10276,7 +10276,7 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>214</v>
@@ -10303,7 +10303,7 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>214</v>
@@ -10327,10 +10327,10 @@
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>214</v>
@@ -10354,10 +10354,10 @@
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>214</v>
@@ -10381,10 +10381,10 @@
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>214</v>
@@ -10408,10 +10408,10 @@
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>214</v>
@@ -10435,10 +10435,10 @@
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>214</v>
@@ -10462,10 +10462,10 @@
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>214</v>
@@ -10489,10 +10489,10 @@
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>214</v>
@@ -10516,10 +10516,10 @@
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>214</v>
@@ -10543,10 +10543,10 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>214</v>
@@ -10570,10 +10570,10 @@
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>214</v>
@@ -10597,10 +10597,10 @@
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>214</v>
@@ -10624,10 +10624,10 @@
     </row>
     <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>214</v>
@@ -10651,10 +10651,10 @@
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>214</v>
@@ -10678,10 +10678,10 @@
     </row>
     <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>214</v>
@@ -10705,10 +10705,10 @@
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>214</v>
@@ -10732,10 +10732,10 @@
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>214</v>
@@ -10759,10 +10759,10 @@
     </row>
     <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>214</v>
@@ -10786,10 +10786,10 @@
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>214</v>
@@ -10813,10 +10813,10 @@
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>214</v>
@@ -10840,10 +10840,10 @@
     </row>
     <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>214</v>
@@ -10867,10 +10867,10 @@
     </row>
     <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>214</v>
@@ -10894,10 +10894,10 @@
     </row>
     <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>214</v>
@@ -10921,10 +10921,10 @@
     </row>
     <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>214</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>214</v>
@@ -10975,10 +10975,10 @@
     </row>
     <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>214</v>
@@ -11002,10 +11002,10 @@
     </row>
     <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>214</v>
@@ -11029,10 +11029,10 @@
     </row>
     <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>214</v>
@@ -11056,10 +11056,10 @@
     </row>
     <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>214</v>
@@ -11083,10 +11083,10 @@
     </row>
     <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>214</v>
@@ -11110,10 +11110,10 @@
     </row>
     <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>214</v>
@@ -11137,10 +11137,10 @@
     </row>
     <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>214</v>
@@ -11164,10 +11164,10 @@
     </row>
     <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>214</v>
@@ -11191,10 +11191,10 @@
     </row>
     <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>214</v>
@@ -11218,10 +11218,10 @@
     </row>
     <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>214</v>
@@ -11245,10 +11245,10 @@
     </row>
     <row r="49" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>214</v>
@@ -11272,10 +11272,10 @@
     </row>
     <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>214</v>
@@ -11299,10 +11299,10 @@
     </row>
     <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>214</v>
@@ -11326,10 +11326,10 @@
     </row>
     <row r="52" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>214</v>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="53" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>214</v>
@@ -11380,10 +11380,10 @@
     </row>
     <row r="54" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>214</v>
@@ -11407,10 +11407,10 @@
     </row>
     <row r="55" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>214</v>
@@ -11434,10 +11434,10 @@
     </row>
     <row r="56" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>214</v>
@@ -11461,10 +11461,10 @@
     </row>
     <row r="57" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>214</v>
@@ -11488,10 +11488,10 @@
     </row>
     <row r="58" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>214</v>
@@ -11515,10 +11515,10 @@
     </row>
     <row r="59" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>214</v>
@@ -11542,10 +11542,10 @@
     </row>
     <row r="60" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>214</v>
@@ -11569,10 +11569,10 @@
     </row>
     <row r="61" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>214</v>
@@ -11596,10 +11596,10 @@
     </row>
     <row r="62" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>214</v>
@@ -11623,10 +11623,10 @@
     </row>
     <row r="63" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>214</v>
@@ -11650,10 +11650,10 @@
     </row>
     <row r="64" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>214</v>
@@ -11677,10 +11677,10 @@
     </row>
     <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>214</v>
@@ -11704,10 +11704,10 @@
     </row>
     <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>214</v>
@@ -11731,10 +11731,10 @@
     </row>
     <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>214</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>214</v>
@@ -11785,10 +11785,10 @@
     </row>
     <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>214</v>
@@ -11812,10 +11812,10 @@
     </row>
     <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>214</v>
@@ -11839,10 +11839,10 @@
     </row>
     <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>214</v>
@@ -11866,10 +11866,10 @@
     </row>
     <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>214</v>
@@ -11893,10 +11893,10 @@
     </row>
     <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>214</v>
@@ -11920,10 +11920,10 @@
     </row>
     <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>214</v>
@@ -11947,10 +11947,10 @@
     </row>
     <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>214</v>
@@ -11974,10 +11974,10 @@
     </row>
     <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>214</v>
@@ -12001,10 +12001,10 @@
     </row>
     <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>214</v>
@@ -12028,10 +12028,10 @@
     </row>
     <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>214</v>
@@ -12055,10 +12055,10 @@
     </row>
     <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>214</v>
@@ -12082,10 +12082,10 @@
     </row>
     <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>214</v>
@@ -12109,10 +12109,10 @@
     </row>
     <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>214</v>
@@ -12136,10 +12136,10 @@
     </row>
     <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>214</v>
@@ -12163,10 +12163,10 @@
     </row>
     <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>214</v>
@@ -12190,10 +12190,10 @@
     </row>
     <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>214</v>
@@ -12217,10 +12217,10 @@
     </row>
     <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>214</v>
@@ -12244,10 +12244,10 @@
     </row>
     <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>214</v>
@@ -12271,10 +12271,10 @@
     </row>
     <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>214</v>
@@ -12298,10 +12298,10 @@
     </row>
     <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>214</v>
@@ -12325,10 +12325,10 @@
     </row>
     <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>214</v>
@@ -12352,10 +12352,10 @@
     </row>
     <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>214</v>
@@ -12379,10 +12379,10 @@
     </row>
     <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>214</v>
@@ -12406,10 +12406,10 @@
     </row>
     <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>214</v>
@@ -12433,10 +12433,10 @@
     </row>
     <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>214</v>
@@ -12460,10 +12460,10 @@
     </row>
     <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>214</v>
@@ -12487,10 +12487,10 @@
     </row>
     <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>214</v>
@@ -12514,10 +12514,10 @@
     </row>
     <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>214</v>
@@ -12541,10 +12541,10 @@
     </row>
     <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>214</v>
@@ -12568,10 +12568,10 @@
     </row>
     <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>214</v>
@@ -12595,10 +12595,10 @@
     </row>
     <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>214</v>
@@ -12622,10 +12622,10 @@
     </row>
     <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>214</v>
@@ -12649,10 +12649,10 @@
     </row>
     <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>214</v>
@@ -12676,10 +12676,10 @@
     </row>
     <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B102" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>214</v>
@@ -12703,10 +12703,10 @@
     </row>
     <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>214</v>
@@ -12730,10 +12730,10 @@
     </row>
     <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>214</v>
@@ -12757,10 +12757,10 @@
     </row>
     <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>214</v>
@@ -12784,10 +12784,10 @@
     </row>
     <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>214</v>
@@ -12811,10 +12811,10 @@
     </row>
     <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B107" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>214</v>
@@ -12838,10 +12838,10 @@
     </row>
     <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>214</v>
@@ -12865,10 +12865,10 @@
     </row>
     <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>214</v>
@@ -12892,10 +12892,10 @@
     </row>
     <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B110" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>214</v>
@@ -12919,10 +12919,10 @@
     </row>
     <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>214</v>
@@ -12946,10 +12946,10 @@
     </row>
     <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B112" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>214</v>
@@ -12973,10 +12973,10 @@
     </row>
     <row r="113" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>214</v>
@@ -13000,10 +13000,10 @@
     </row>
     <row r="114" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>214</v>
@@ -13027,10 +13027,10 @@
     </row>
     <row r="115" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B115" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>214</v>
@@ -13054,10 +13054,10 @@
     </row>
     <row r="116" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>214</v>
@@ -13081,10 +13081,10 @@
     </row>
     <row r="117" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B117" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>214</v>
@@ -13108,10 +13108,10 @@
     </row>
     <row r="118" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B118" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>214</v>
@@ -13135,10 +13135,10 @@
     </row>
     <row r="119" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B119" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>214</v>
@@ -13162,10 +13162,10 @@
     </row>
     <row r="120" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>214</v>
@@ -13189,10 +13189,10 @@
     </row>
     <row r="121" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B121" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>214</v>
@@ -13216,10 +13216,10 @@
     </row>
     <row r="122" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B122" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>214</v>
@@ -13243,10 +13243,10 @@
     </row>
     <row r="123" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>214</v>
@@ -13270,10 +13270,10 @@
     </row>
     <row r="124" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>214</v>
@@ -14308,13 +14308,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="18" t="b">
         <v>0</v>
@@ -14322,13 +14322,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="18" t="b">
         <v>0</v>
@@ -14336,13 +14336,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="18" t="b">
         <v>0</v>
@@ -14350,13 +14350,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="18" t="b">
         <v>0</v>
@@ -14364,13 +14364,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D9" s="18" t="b">
         <v>0</v>
@@ -14378,13 +14378,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D10" s="18" t="b">
         <v>0</v>
@@ -15993,26 +15993,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -16164,31 +16144,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16204,4 +16180,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>